--- a/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23985D61-E9DE-473A-BEAD-71393F1DA4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD37B9-BAAC-4C70-91CD-79498B7E73D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Version</t>
   </si>
@@ -86,12 +82,33 @@
   <si>
     <t>v_car_showlist</t>
   </si>
+  <si>
+    <t>v_driver_showlist.php</t>
+  </si>
+  <si>
+    <t>วิรัตน์</t>
+  </si>
+  <si>
+    <t>การแสดงผลผิด</t>
+  </si>
+  <si>
+    <t>Driver_show.php</t>
+  </si>
+  <si>
+    <t>M_cdms_driver.php</t>
+  </si>
+  <si>
+    <t>Logic ผิด</t>
+  </si>
+  <si>
+    <t>Da_cdms_driver.php</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +130,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -183,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,6 +237,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -221,16 +249,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,72 +575,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
-  <dimension ref="B2:L168"/>
+  <dimension ref="B2:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:14" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="K2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="L2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="M2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="N2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+    <row r="3" spans="2:14" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -622,42 +658,46 @@
         <v>44379</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4"/>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4">
-        <f>SUM(F4:K4)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N9" si="0">SUM(F4:M4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
         <v>44381</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="9">
-        <f t="shared" ref="L5:L9" si="0">SUM(F5:K5)</f>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
@@ -668,22 +708,24 @@
         <v>44410</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="9">
+      <c r="M6" s="4"/>
+      <c r="N6" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -694,20 +736,22 @@
         <v>44410</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="9">
+      <c r="M7" s="4"/>
+      <c r="N7" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -718,20 +762,22 @@
         <v>44410</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4">
-        <v>2</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -742,798 +788,964 @@
         <v>44410</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="9">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <f>SUM(F10:M10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="10">
+        <f t="shared" ref="N11:N14" si="1">SUM(F11:M11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="D13" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -1544,9 +1756,11 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -1557,9 +1771,11 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -1570,9 +1786,11 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1583,9 +1801,11 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -1596,9 +1816,11 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -1609,9 +1831,11 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -1622,9 +1846,11 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -1635,9 +1861,11 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -1648,9 +1876,11 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1661,9 +1891,11 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
-      <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -1674,9 +1906,11 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -1687,9 +1921,11 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -1700,9 +1936,11 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -1713,9 +1951,11 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -1726,9 +1966,11 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -1739,9 +1981,11 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -1752,9 +1996,11 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -1765,9 +2011,11 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -1778,9 +2026,11 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
-      <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -1791,9 +2041,11 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -1804,9 +2056,11 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -1817,9 +2071,11 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -1830,9 +2086,11 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
-      <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -1843,9 +2101,11 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -1856,9 +2116,11 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
-      <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -1869,9 +2131,11 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -1882,9 +2146,11 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -1895,9 +2161,11 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -1908,9 +2176,11 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -1921,9 +2191,11 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -1934,9 +2206,11 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -1947,9 +2221,11 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -1960,9 +2236,11 @@
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -1973,9 +2251,11 @@
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -1986,9 +2266,11 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -1999,9 +2281,11 @@
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2012,9 +2296,11 @@
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2025,9 +2311,11 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2038,9 +2326,11 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2051,9 +2341,11 @@
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -2064,9 +2356,11 @@
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
-      <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2077,9 +2371,11 @@
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -2090,9 +2386,11 @@
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
-      <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -2103,9 +2401,11 @@
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
-      <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -2116,9 +2416,11 @@
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
-      <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2129,9 +2431,11 @@
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
-      <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2142,9 +2446,11 @@
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
-      <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -2155,9 +2461,11 @@
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
-      <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2168,9 +2476,11 @@
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
-      <c r="L118" s="4"/>
-    </row>
-    <row r="119" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2181,9 +2491,11 @@
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
-      <c r="L119" s="4"/>
-    </row>
-    <row r="120" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2194,9 +2506,11 @@
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
-      <c r="L120" s="4"/>
-    </row>
-    <row r="121" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="4"/>
+    </row>
+    <row r="121" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2207,9 +2521,11 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
-      <c r="L121" s="4"/>
-    </row>
-    <row r="122" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2220,9 +2536,11 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
-      <c r="L122" s="4"/>
-    </row>
-    <row r="123" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2233,9 +2551,11 @@
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
-      <c r="L123" s="4"/>
-    </row>
-    <row r="124" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -2246,9 +2566,11 @@
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
-      <c r="L124" s="4"/>
-    </row>
-    <row r="125" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="4"/>
+    </row>
+    <row r="125" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2259,9 +2581,11 @@
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
-      <c r="L125" s="4"/>
-    </row>
-    <row r="126" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2272,9 +2596,11 @@
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
-      <c r="L126" s="4"/>
-    </row>
-    <row r="127" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="4"/>
+    </row>
+    <row r="127" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2285,9 +2611,11 @@
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
-      <c r="L127" s="4"/>
-    </row>
-    <row r="128" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="4"/>
+    </row>
+    <row r="128" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2298,9 +2626,11 @@
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
-      <c r="L128" s="4"/>
-    </row>
-    <row r="129" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="4"/>
+    </row>
+    <row r="129" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2311,9 +2641,11 @@
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
-      <c r="L129" s="4"/>
-    </row>
-    <row r="130" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -2324,9 +2656,11 @@
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
-      <c r="L130" s="4"/>
-    </row>
-    <row r="131" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="4"/>
+    </row>
+    <row r="131" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -2337,9 +2671,11 @@
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
-      <c r="L131" s="4"/>
-    </row>
-    <row r="132" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -2350,9 +2686,11 @@
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
-      <c r="L132" s="4"/>
-    </row>
-    <row r="133" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="4"/>
+    </row>
+    <row r="133" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -2363,9 +2701,11 @@
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
-      <c r="L133" s="4"/>
-    </row>
-    <row r="134" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="4"/>
+    </row>
+    <row r="134" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -2376,9 +2716,11 @@
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
-      <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -2389,9 +2731,11 @@
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
-      <c r="L135" s="4"/>
-    </row>
-    <row r="136" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -2402,9 +2746,11 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
-      <c r="L136" s="4"/>
-    </row>
-    <row r="137" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="4"/>
+    </row>
+    <row r="137" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -2415,9 +2761,11 @@
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
-      <c r="L137" s="4"/>
-    </row>
-    <row r="138" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="4"/>
+    </row>
+    <row r="138" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -2428,9 +2776,11 @@
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
-      <c r="L138" s="4"/>
-    </row>
-    <row r="139" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="4"/>
+    </row>
+    <row r="139" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -2441,9 +2791,11 @@
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
-      <c r="L139" s="4"/>
-    </row>
-    <row r="140" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="4"/>
+    </row>
+    <row r="140" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -2454,9 +2806,11 @@
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
-      <c r="L140" s="4"/>
-    </row>
-    <row r="141" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="4"/>
+    </row>
+    <row r="141" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -2467,9 +2821,11 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
-      <c r="L141" s="4"/>
-    </row>
-    <row r="142" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="4"/>
+    </row>
+    <row r="142" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -2480,9 +2836,11 @@
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
-      <c r="L142" s="4"/>
-    </row>
-    <row r="143" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="4"/>
+    </row>
+    <row r="143" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -2493,9 +2851,11 @@
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
-      <c r="L143" s="4"/>
-    </row>
-    <row r="144" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -2506,109 +2866,113 @@
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
-      <c r="L144" s="4"/>
-    </row>
-    <row r="145" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="4"/>
+    </row>
+    <row r="145" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="3"/>
-      <c r="L145" s="2"/>
-    </row>
-    <row r="146" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N145" s="2"/>
+    </row>
+    <row r="146" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="3"/>
-      <c r="L146" s="2"/>
-    </row>
-    <row r="147" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N146" s="2"/>
+    </row>
+    <row r="147" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="3"/>
-      <c r="L147" s="2"/>
-    </row>
-    <row r="148" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N147" s="2"/>
+    </row>
+    <row r="148" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="3"/>
-      <c r="L148" s="2"/>
-    </row>
-    <row r="149" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N148" s="2"/>
+    </row>
+    <row r="149" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="3"/>
-      <c r="L149" s="2"/>
-    </row>
-    <row r="150" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N149" s="2"/>
+    </row>
+    <row r="150" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="3"/>
-      <c r="L150" s="2"/>
-    </row>
-    <row r="151" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N150" s="2"/>
+    </row>
+    <row r="151" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="3"/>
-      <c r="L151" s="2"/>
-    </row>
-    <row r="152" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N151" s="2"/>
+    </row>
+    <row r="152" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="3"/>
-      <c r="L152" s="2"/>
-    </row>
-    <row r="153" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N152" s="2"/>
+    </row>
+    <row r="153" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="3"/>
-      <c r="L153" s="2"/>
-    </row>
-    <row r="154" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N153" s="2"/>
+    </row>
+    <row r="154" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="3"/>
-      <c r="L154" s="2"/>
-    </row>
-    <row r="155" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N154" s="2"/>
+    </row>
+    <row r="155" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="3"/>
-      <c r="L155" s="2"/>
-    </row>
-    <row r="156" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N155" s="2"/>
+    </row>
+    <row r="156" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="3"/>
-      <c r="L156" s="2"/>
-    </row>
-    <row r="157" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N156" s="2"/>
+    </row>
+    <row r="157" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
-      <c r="L157" s="2"/>
-    </row>
-    <row r="158" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N157" s="2"/>
+    </row>
+    <row r="158" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="3"/>
-      <c r="L158" s="2"/>
-    </row>
-    <row r="159" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N158" s="2"/>
+    </row>
+    <row r="159" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="3"/>
-      <c r="L159" s="2"/>
-    </row>
-    <row r="160" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N159" s="2"/>
+    </row>
+    <row r="160" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
+  <mergeCells count="14">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD37B9-BAAC-4C70-91CD-79498B7E73D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A85B1-3054-4A9F-B43E-3292309474B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Version</t>
   </si>
@@ -102,6 +106,21 @@
   </si>
   <si>
     <t>Da_cdms_driver.php</t>
+  </si>
+  <si>
+    <t>Da_cdms_container.php</t>
+  </si>
+  <si>
+    <t>M_cdms_container.php</t>
+  </si>
+  <si>
+    <t>Container_show.php</t>
+  </si>
+  <si>
+    <t>v_container_showlist.php</t>
+  </si>
+  <si>
+    <t>ธนาธิป,วริศรา</t>
   </si>
 </sst>
 </file>
@@ -240,6 +259,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,16 +271,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,78 +596,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.09765625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-    </row>
-    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+    <row r="3" spans="2:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -677,8 +697,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
         <v>44381</v>
@@ -697,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
@@ -725,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -751,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -777,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -801,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
@@ -827,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
@@ -849,11 +869,11 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N14" si="1">SUM(F11:M11)</f>
+        <f t="shared" ref="N11:N13" si="1">SUM(F11:M11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
@@ -879,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
@@ -905,11 +925,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
+    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="4"/>
@@ -918,13 +944,21 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="4"/>
@@ -933,13 +967,21 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="4"/>
@@ -948,13 +990,21 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="4"/>
@@ -963,9 +1013,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -980,7 +1032,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -995,7 +1047,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1010,7 +1062,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1025,7 +1077,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1040,7 +1092,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1055,7 +1107,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1070,7 +1122,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1085,7 +1137,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1100,7 +1152,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1115,7 +1167,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1130,7 +1182,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1145,7 +1197,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1160,7 +1212,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1175,7 +1227,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1190,7 +1242,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1205,7 +1257,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1220,7 +1272,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1235,7 +1287,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1250,7 +1302,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1265,7 +1317,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1280,7 +1332,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1295,7 +1347,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1310,7 +1362,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1325,7 +1377,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1340,7 +1392,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1355,7 +1407,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1370,7 +1422,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1385,7 +1437,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1400,7 +1452,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1415,7 +1467,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1430,7 +1482,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1445,7 +1497,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1460,7 +1512,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1475,7 +1527,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1490,7 +1542,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1505,7 +1557,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1520,7 +1572,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1535,7 +1587,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1550,7 +1602,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1565,7 +1617,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1580,7 +1632,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1595,7 +1647,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1610,7 +1662,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1625,7 +1677,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1640,7 +1692,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1655,7 +1707,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1670,7 +1722,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1685,7 +1737,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1700,7 +1752,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1715,7 +1767,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1730,7 +1782,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1745,7 +1797,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -1760,7 +1812,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -1775,7 +1827,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -1790,7 +1842,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1805,7 +1857,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -1820,7 +1872,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -1835,7 +1887,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -1850,7 +1902,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -1865,7 +1917,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -1880,7 +1932,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1895,7 +1947,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -1910,7 +1962,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -1925,7 +1977,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -1940,7 +1992,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -1955,7 +2007,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -1970,7 +2022,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -1985,7 +2037,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2000,7 +2052,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2015,7 +2067,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2030,7 +2082,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2045,7 +2097,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2060,7 +2112,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -2075,7 +2127,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2090,7 +2142,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -2105,7 +2157,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -2120,7 +2172,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -2135,7 +2187,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -2150,7 +2202,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -2165,7 +2217,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -2180,7 +2232,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -2195,7 +2247,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -2210,7 +2262,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -2225,7 +2277,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -2240,7 +2292,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -2255,7 +2307,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -2270,7 +2322,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -2285,7 +2337,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2300,7 +2352,7 @@
       <c r="M106" s="7"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2315,7 +2367,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2330,7 +2382,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2345,7 +2397,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -2360,7 +2412,7 @@
       <c r="M110" s="7"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2375,7 +2427,7 @@
       <c r="M111" s="7"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -2390,7 +2442,7 @@
       <c r="M112" s="7"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -2405,7 +2457,7 @@
       <c r="M113" s="7"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -2420,7 +2472,7 @@
       <c r="M114" s="7"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2435,7 +2487,7 @@
       <c r="M115" s="7"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2450,7 +2502,7 @@
       <c r="M116" s="7"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -2465,7 +2517,7 @@
       <c r="M117" s="7"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2480,7 +2532,7 @@
       <c r="M118" s="7"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2495,7 +2547,7 @@
       <c r="M119" s="7"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2510,7 +2562,7 @@
       <c r="M120" s="7"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2525,7 +2577,7 @@
       <c r="M121" s="7"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2540,7 +2592,7 @@
       <c r="M122" s="7"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2555,7 +2607,7 @@
       <c r="M123" s="7"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -2570,7 +2622,7 @@
       <c r="M124" s="7"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2585,7 +2637,7 @@
       <c r="M125" s="7"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2600,7 +2652,7 @@
       <c r="M126" s="7"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2615,7 +2667,7 @@
       <c r="M127" s="7"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2630,7 +2682,7 @@
       <c r="M128" s="7"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2645,7 +2697,7 @@
       <c r="M129" s="7"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -2660,7 +2712,7 @@
       <c r="M130" s="7"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -2675,7 +2727,7 @@
       <c r="M131" s="7"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -2690,7 +2742,7 @@
       <c r="M132" s="7"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -2705,7 +2757,7 @@
       <c r="M133" s="7"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -2720,7 +2772,7 @@
       <c r="M134" s="7"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -2735,7 +2787,7 @@
       <c r="M135" s="7"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -2750,7 +2802,7 @@
       <c r="M136" s="7"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -2765,7 +2817,7 @@
       <c r="M137" s="7"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -2780,7 +2832,7 @@
       <c r="M138" s="7"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -2795,7 +2847,7 @@
       <c r="M139" s="7"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -2810,7 +2862,7 @@
       <c r="M140" s="7"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -2825,7 +2877,7 @@
       <c r="M141" s="7"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -2840,7 +2892,7 @@
       <c r="M142" s="7"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -2855,7 +2907,7 @@
       <c r="M143" s="7"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -2870,91 +2922,91 @@
       <c r="M144" s="7"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="N149" s="2"/>
     </row>
-    <row r="150" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="N154" s="2"/>
     </row>
-    <row r="155" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="N155" s="2"/>
     </row>
-    <row r="156" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="N156" s="2"/>
     </row>
-    <row r="157" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="N157" s="2"/>
     </row>
-    <row r="158" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="N158" s="2"/>
     </row>
-    <row r="159" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
     </row>
   </sheetData>

--- a/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A85B1-3054-4A9F-B43E-3292309474B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842F245-B332-482D-8529-871574B3E92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-9708" yWindow="3432" windowWidth="17244" windowHeight="8700" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Version</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>ธนาธิป,วริศรา</t>
+  </si>
+  <si>
+    <t>กิตติพศ</t>
+  </si>
+  <si>
+    <t>v_car_input.php</t>
+  </si>
+  <si>
+    <t>Car_input.php</t>
+  </si>
+  <si>
+    <t>Da_cdms_car.php</t>
   </si>
 </sst>
 </file>
@@ -596,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -605,7 +617,7 @@
     <col min="1" max="1" width="8.69921875" style="1"/>
     <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.09765625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.69921875" style="1"/>
@@ -727,7 +739,9 @@
       <c r="D6" s="5">
         <v>44410</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="4"/>
@@ -755,7 +769,9 @@
       <c r="D7" s="5">
         <v>44410</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="4"/>
@@ -781,7 +797,9 @@
       <c r="D8" s="5">
         <v>44410</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="4"/>
@@ -807,7 +825,9 @@
       <c r="D9" s="5">
         <v>44410</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="4"/>
@@ -1018,10 +1038,16 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+      <c r="B18" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="4"/>
@@ -1030,13 +1056,21 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
+      <c r="B19" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="4"/>
@@ -1045,14 +1079,24 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1060,7 +1104,10 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="10">
+        <f t="shared" ref="N20" si="2">SUM(F20:M20)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>

--- a/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842F245-B332-482D-8529-871574B3E92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D457E-BAA4-4B9F-AB12-E6B26B3BD361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9708" yWindow="3432" windowWidth="17244" windowHeight="8700" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,9 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1095,7 +1097,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="4"/>
@@ -1106,7 +1108,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="10">
         <f t="shared" ref="N20" si="2">SUM(F20:M20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D457E-BAA4-4B9F-AB12-E6B26B3BD361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB85334-02BF-4834-BB13-A251F5498769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Version</t>
   </si>
@@ -133,17 +133,26 @@
   </si>
   <si>
     <t>Da_cdms_car.php</t>
+  </si>
+  <si>
+    <t>Car_edit.php</t>
+  </si>
+  <si>
+    <t>v_car_edit.php</t>
+  </si>
+  <si>
+    <t>เบญจพล</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -152,13 +161,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -167,7 +176,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -294,7 +303,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -310,7 +319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -608,22 +617,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="9.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.09765625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="26.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="50.4" customHeight="1">
       <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
@@ -664,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="44.4" customHeight="1">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -679,7 +688,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="30" customHeight="1">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
@@ -709,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="30" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
@@ -729,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="30" customHeight="1">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
@@ -759,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="30" customHeight="1">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -787,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="30" customHeight="1">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -815,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="30" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -841,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="30" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
@@ -867,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="30" customHeight="1">
       <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
@@ -893,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="30" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
@@ -919,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="30" customHeight="1">
       <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
@@ -945,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="30" customHeight="1">
       <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
@@ -968,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="30" customHeight="1">
       <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
@@ -991,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="30" customHeight="1">
       <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="30" customHeight="1">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="30" customHeight="1">
       <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
@@ -1060,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="30" customHeight="1">
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="30" customHeight="1">
       <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
@@ -1111,27 +1120,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
+    <row r="21" spans="2:14" ht="30" customHeight="1">
+      <c r="B21" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="30" customHeight="1">
+      <c r="B22" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="10">
+        <v>2</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1139,9 +1166,11 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="30" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1156,7 +1185,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="30" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1171,7 +1200,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="30" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1186,7 +1215,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="30" customHeight="1">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1201,7 +1230,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="30" customHeight="1">
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1216,7 +1245,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="30" customHeight="1">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1231,7 +1260,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="30" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1246,7 +1275,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="30" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1261,7 +1290,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="30" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1276,7 +1305,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="30" customHeight="1">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1291,7 +1320,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="30" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1306,7 +1335,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="30" customHeight="1">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1321,7 +1350,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="30" customHeight="1">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1336,7 +1365,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="30" customHeight="1">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1351,7 +1380,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="30" customHeight="1">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1366,7 +1395,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="30" customHeight="1">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1381,7 +1410,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="30" customHeight="1">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1396,7 +1425,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="30" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1411,7 +1440,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="30" customHeight="1">
       <c r="B41" s="6"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1426,7 +1455,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="30" customHeight="1">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1441,7 +1470,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="30" customHeight="1">
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1456,7 +1485,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="30" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1471,7 +1500,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="30" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1486,7 +1515,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="30" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1501,7 +1530,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="30" customHeight="1">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1516,7 +1545,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="30" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1531,7 +1560,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="30" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1546,7 +1575,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" ht="30" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1561,7 +1590,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="30" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1576,7 +1605,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="30" customHeight="1">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1591,7 +1620,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="30" customHeight="1">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1606,7 +1635,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="30" customHeight="1">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1621,7 +1650,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="30" customHeight="1">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1636,7 +1665,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="30" customHeight="1">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1651,7 +1680,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="30" customHeight="1">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1666,7 +1695,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="30" customHeight="1">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1681,7 +1710,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="30" customHeight="1">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1696,7 +1725,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="30" customHeight="1">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1711,7 +1740,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="30" customHeight="1">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1726,7 +1755,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="30" customHeight="1">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1741,7 +1770,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="30" customHeight="1">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1756,7 +1785,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="30" customHeight="1">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1771,7 +1800,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="30" customHeight="1">
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1786,7 +1815,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="30" customHeight="1">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1801,7 +1830,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="30" customHeight="1">
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1816,7 +1845,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="30" customHeight="1">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1831,7 +1860,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="30" customHeight="1">
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1846,7 +1875,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" ht="30" customHeight="1">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -1861,7 +1890,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="30" customHeight="1">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -1876,7 +1905,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="30" customHeight="1">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -1891,7 +1920,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="30" customHeight="1">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1906,7 +1935,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" ht="30" customHeight="1">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -1921,7 +1950,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="30" customHeight="1">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -1936,7 +1965,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="30" customHeight="1">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -1951,7 +1980,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="30" customHeight="1">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -1966,7 +1995,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="30" customHeight="1">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -1981,7 +2010,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="30" customHeight="1">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1996,7 +2025,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" ht="30" customHeight="1">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2011,7 +2040,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="30" customHeight="1">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2026,7 +2055,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="30" customHeight="1">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2041,7 +2070,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="30" customHeight="1">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2056,7 +2085,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" ht="30" customHeight="1">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2071,7 +2100,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" ht="30" customHeight="1">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2086,7 +2115,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" ht="30" customHeight="1">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2101,7 +2130,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="30" customHeight="1">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2116,7 +2145,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" ht="30" customHeight="1">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2131,7 +2160,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="30" customHeight="1">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2146,7 +2175,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="30" customHeight="1">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2161,7 +2190,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="30" customHeight="1">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -2176,7 +2205,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="30" customHeight="1">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2191,7 +2220,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="30" customHeight="1">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -2206,7 +2235,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" ht="30" customHeight="1">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -2221,7 +2250,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="30" customHeight="1">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -2236,7 +2265,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" ht="30" customHeight="1">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -2251,7 +2280,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="30" customHeight="1">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -2266,7 +2295,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" ht="30" customHeight="1">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -2281,7 +2310,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="30" customHeight="1">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -2296,7 +2325,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" ht="30" customHeight="1">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -2311,7 +2340,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="30" customHeight="1">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -2326,7 +2355,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" ht="30" customHeight="1">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -2341,7 +2370,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" ht="30" customHeight="1">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -2356,7 +2385,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="30" customHeight="1">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -2371,7 +2400,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="30" customHeight="1">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -2386,7 +2415,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="30" customHeight="1">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2401,7 +2430,7 @@
       <c r="M106" s="7"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="30" customHeight="1">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2416,7 +2445,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" ht="30" customHeight="1">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2431,7 +2460,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" ht="30" customHeight="1">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2446,7 +2475,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" ht="30" customHeight="1">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -2461,7 +2490,7 @@
       <c r="M110" s="7"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="30" customHeight="1">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2476,7 +2505,7 @@
       <c r="M111" s="7"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" ht="30" customHeight="1">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -2491,7 +2520,7 @@
       <c r="M112" s="7"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="30" customHeight="1">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -2506,7 +2535,7 @@
       <c r="M113" s="7"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" ht="30" customHeight="1">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -2521,7 +2550,7 @@
       <c r="M114" s="7"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="30" customHeight="1">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2536,7 +2565,7 @@
       <c r="M115" s="7"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" ht="30" customHeight="1">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2551,7 +2580,7 @@
       <c r="M116" s="7"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" ht="30" customHeight="1">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -2566,7 +2595,7 @@
       <c r="M117" s="7"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="30" customHeight="1">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2581,7 +2610,7 @@
       <c r="M118" s="7"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="30" customHeight="1">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2596,7 +2625,7 @@
       <c r="M119" s="7"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" ht="30" customHeight="1">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2611,7 +2640,7 @@
       <c r="M120" s="7"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="30" customHeight="1">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2626,7 +2655,7 @@
       <c r="M121" s="7"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" ht="30" customHeight="1">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2641,7 +2670,7 @@
       <c r="M122" s="7"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="30" customHeight="1">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2656,7 +2685,7 @@
       <c r="M123" s="7"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="30" customHeight="1">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -2671,7 +2700,7 @@
       <c r="M124" s="7"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="30" customHeight="1">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2686,7 +2715,7 @@
       <c r="M125" s="7"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" ht="30" customHeight="1">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2701,7 +2730,7 @@
       <c r="M126" s="7"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" ht="30" customHeight="1">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2716,7 +2745,7 @@
       <c r="M127" s="7"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" ht="30" customHeight="1">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2731,7 +2760,7 @@
       <c r="M128" s="7"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" ht="30" customHeight="1">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2746,7 +2775,7 @@
       <c r="M129" s="7"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" ht="30" customHeight="1">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -2761,7 +2790,7 @@
       <c r="M130" s="7"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="30" customHeight="1">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -2776,7 +2805,7 @@
       <c r="M131" s="7"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" ht="30" customHeight="1">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -2791,7 +2820,7 @@
       <c r="M132" s="7"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" ht="30" customHeight="1">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -2806,7 +2835,7 @@
       <c r="M133" s="7"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" ht="30" customHeight="1">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -2821,7 +2850,7 @@
       <c r="M134" s="7"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="30" customHeight="1">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -2836,7 +2865,7 @@
       <c r="M135" s="7"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" ht="30" customHeight="1">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -2851,7 +2880,7 @@
       <c r="M136" s="7"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" ht="30" customHeight="1">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -2866,7 +2895,7 @@
       <c r="M137" s="7"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" ht="30" customHeight="1">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -2881,7 +2910,7 @@
       <c r="M138" s="7"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="30" customHeight="1">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -2896,7 +2925,7 @@
       <c r="M139" s="7"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" ht="30" customHeight="1">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -2911,7 +2940,7 @@
       <c r="M140" s="7"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" ht="30" customHeight="1">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -2926,7 +2955,7 @@
       <c r="M141" s="7"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" ht="30" customHeight="1">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -2941,7 +2970,7 @@
       <c r="M142" s="7"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="30" customHeight="1">
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -2956,7 +2985,7 @@
       <c r="M143" s="7"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" ht="30" customHeight="1">
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -2971,91 +3000,91 @@
       <c r="M144" s="7"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" ht="30" customHeight="1">
       <c r="B145" s="3"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" ht="30" customHeight="1">
       <c r="B146" s="3"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" ht="30" customHeight="1">
       <c r="B147" s="3"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" ht="30" customHeight="1">
       <c r="B148" s="3"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" ht="30" customHeight="1">
       <c r="B149" s="3"/>
       <c r="N149" s="2"/>
     </row>
-    <row r="150" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" ht="30" customHeight="1">
       <c r="B150" s="3"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" ht="30" customHeight="1">
       <c r="B151" s="3"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" ht="30" customHeight="1">
       <c r="B152" s="3"/>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="30" customHeight="1">
       <c r="B153" s="3"/>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" ht="30" customHeight="1">
       <c r="B154" s="3"/>
       <c r="N154" s="2"/>
     </row>
-    <row r="155" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="30" customHeight="1">
       <c r="B155" s="3"/>
       <c r="N155" s="2"/>
     </row>
-    <row r="156" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" ht="30" customHeight="1">
       <c r="B156" s="3"/>
       <c r="N156" s="2"/>
     </row>
-    <row r="157" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" ht="30" customHeight="1">
       <c r="B157" s="3"/>
       <c r="N157" s="2"/>
     </row>
-    <row r="158" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" ht="30" customHeight="1">
       <c r="B158" s="3"/>
       <c r="N158" s="2"/>
     </row>
-    <row r="159" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" ht="30" customHeight="1">
       <c r="B159" s="3"/>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" ht="30" customHeight="1">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="30" customHeight="1">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="30" customHeight="1">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="30" customHeight="1">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="30" customHeight="1">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="30" customHeight="1">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="30" customHeight="1">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="30" customHeight="1">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="30" customHeight="1">
       <c r="B168" s="3"/>
     </row>
   </sheetData>

--- a/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB85334-02BF-4834-BB13-A251F5498769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03892BDB-EB38-44C8-9757-0D9C4157E78D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Version</t>
   </si>
@@ -142,17 +142,29 @@
   </si>
   <si>
     <t>เบญจพล</t>
+  </si>
+  <si>
+    <t>Container_edit.php</t>
+  </si>
+  <si>
+    <t>Container_input.php</t>
+  </si>
+  <si>
+    <t>v_container_input.php</t>
+  </si>
+  <si>
+    <t>v_container_edit.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -161,13 +173,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -176,7 +188,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -303,7 +315,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -319,7 +331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -617,22 +629,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="26.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="9.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.09765625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="50.4" customHeight="1">
+    <row r="2" spans="2:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
@@ -673,7 +685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="44.4" customHeight="1">
+    <row r="3" spans="2:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -688,7 +700,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="2:14" ht="30" customHeight="1">
+    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
@@ -718,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="30" customHeight="1">
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
@@ -738,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="30" customHeight="1">
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
@@ -768,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="30" customHeight="1">
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -796,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30" customHeight="1">
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -824,7 +836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30" customHeight="1">
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -850,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30" customHeight="1">
+    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
@@ -876,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30" customHeight="1">
+    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
@@ -902,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30" customHeight="1">
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
@@ -928,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1">
+    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
@@ -954,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="30" customHeight="1">
+    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
@@ -977,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1">
+    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
@@ -1000,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="30" customHeight="1">
+    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="30" customHeight="1">
+    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1046,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="30" customHeight="1">
+    <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="30" customHeight="1">
+    <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
@@ -1094,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="30" customHeight="1">
+    <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="30" customHeight="1">
+    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="30" customHeight="1">
+    <row r="22" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
@@ -1170,11 +1182,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="30" customHeight="1">
-      <c r="B23" s="6"/>
+    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="4"/>
@@ -1183,13 +1201,21 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" ht="30" customHeight="1">
-      <c r="B24" s="6"/>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="4"/>
@@ -1198,13 +1224,21 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="2:14" ht="30" customHeight="1">
-      <c r="B25" s="6"/>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="4"/>
@@ -1213,13 +1247,21 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="2:14" ht="30" customHeight="1">
-      <c r="B26" s="6"/>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="4"/>
@@ -1228,13 +1270,21 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="2:14" ht="30" customHeight="1">
-      <c r="B27" s="6"/>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="4"/>
@@ -1243,9 +1293,11 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="2:14" ht="30" customHeight="1">
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1260,7 +1312,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:14" ht="30" customHeight="1">
+    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1275,7 +1327,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:14" ht="30" customHeight="1">
+    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1290,7 +1342,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:14" ht="30" customHeight="1">
+    <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1305,7 +1357,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:14" ht="30" customHeight="1">
+    <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1320,7 +1372,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="2:14" ht="30" customHeight="1">
+    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1335,7 +1387,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="2:14" ht="30" customHeight="1">
+    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1350,7 +1402,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:14" ht="30" customHeight="1">
+    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1365,7 +1417,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14" ht="30" customHeight="1">
+    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1380,7 +1432,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="2:14" ht="30" customHeight="1">
+    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1395,7 +1447,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="30" customHeight="1">
+    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1410,7 +1462,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14" ht="30" customHeight="1">
+    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1425,7 +1477,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="30" customHeight="1">
+    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1440,7 +1492,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="30" customHeight="1">
+    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1455,7 +1507,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:14" ht="30" customHeight="1">
+    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1470,7 +1522,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1">
+    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1485,7 +1537,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:14" ht="30" customHeight="1">
+    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1500,7 +1552,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="30" customHeight="1">
+    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1515,7 +1567,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="30" customHeight="1">
+    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1530,7 +1582,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="30" customHeight="1">
+    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1545,7 +1597,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="30" customHeight="1">
+    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1560,7 +1612,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="2:14" ht="30" customHeight="1">
+    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1575,7 +1627,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="2:14" ht="30" customHeight="1">
+    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1590,7 +1642,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="2:14" ht="30" customHeight="1">
+    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1605,7 +1657,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="2:14" ht="30" customHeight="1">
+    <row r="52" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1620,7 +1672,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="2:14" ht="30" customHeight="1">
+    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1635,7 +1687,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="2:14" ht="30" customHeight="1">
+    <row r="54" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1650,7 +1702,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="2:14" ht="30" customHeight="1">
+    <row r="55" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1665,7 +1717,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14" ht="30" customHeight="1">
+    <row r="56" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1680,7 +1732,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="2:14" ht="30" customHeight="1">
+    <row r="57" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1695,7 +1747,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14" ht="30" customHeight="1">
+    <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1710,7 +1762,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="2:14" ht="30" customHeight="1">
+    <row r="59" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1725,7 +1777,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="2:14" ht="30" customHeight="1">
+    <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1740,7 +1792,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="2:14" ht="30" customHeight="1">
+    <row r="61" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1755,7 +1807,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="2:14" ht="30" customHeight="1">
+    <row r="62" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1770,7 +1822,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="2:14" ht="30" customHeight="1">
+    <row r="63" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1785,7 +1837,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="2:14" ht="30" customHeight="1">
+    <row r="64" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1800,7 +1852,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="2:14" ht="30" customHeight="1">
+    <row r="65" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1815,7 +1867,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="2:14" ht="30" customHeight="1">
+    <row r="66" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1830,7 +1882,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="2:14" ht="30" customHeight="1">
+    <row r="67" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1845,7 +1897,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="2:14" ht="30" customHeight="1">
+    <row r="68" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1860,7 +1912,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="2:14" ht="30" customHeight="1">
+    <row r="69" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1875,7 +1927,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="2:14" ht="30" customHeight="1">
+    <row r="70" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -1890,7 +1942,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="2:14" ht="30" customHeight="1">
+    <row r="71" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -1905,7 +1957,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="2:14" ht="30" customHeight="1">
+    <row r="72" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -1920,7 +1972,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="2:14" ht="30" customHeight="1">
+    <row r="73" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1935,7 +1987,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="2:14" ht="30" customHeight="1">
+    <row r="74" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -1950,7 +2002,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="2:14" ht="30" customHeight="1">
+    <row r="75" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -1965,7 +2017,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="2:14" ht="30" customHeight="1">
+    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -1980,7 +2032,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="2:14" ht="30" customHeight="1">
+    <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -1995,7 +2047,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="2:14" ht="30" customHeight="1">
+    <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2010,7 +2062,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="2:14" ht="30" customHeight="1">
+    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2025,7 +2077,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="2:14" ht="30" customHeight="1">
+    <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2040,7 +2092,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="2:14" ht="30" customHeight="1">
+    <row r="81" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2055,7 +2107,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="2:14" ht="30" customHeight="1">
+    <row r="82" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2070,7 +2122,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="2:14" ht="30" customHeight="1">
+    <row r="83" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2085,7 +2137,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="2:14" ht="30" customHeight="1">
+    <row r="84" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2100,7 +2152,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="2:14" ht="30" customHeight="1">
+    <row r="85" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2115,7 +2167,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="2:14" ht="30" customHeight="1">
+    <row r="86" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2130,7 +2182,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="2:14" ht="30" customHeight="1">
+    <row r="87" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2145,7 +2197,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="2:14" ht="30" customHeight="1">
+    <row r="88" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2160,7 +2212,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="2:14" ht="30" customHeight="1">
+    <row r="89" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2175,7 +2227,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="2:14" ht="30" customHeight="1">
+    <row r="90" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2190,7 +2242,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="2:14" ht="30" customHeight="1">
+    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -2205,7 +2257,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="2:14" ht="30" customHeight="1">
+    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2220,7 +2272,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="2:14" ht="30" customHeight="1">
+    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -2235,7 +2287,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="2:14" ht="30" customHeight="1">
+    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -2250,7 +2302,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="2:14" ht="30" customHeight="1">
+    <row r="95" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -2265,7 +2317,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="2:14" ht="30" customHeight="1">
+    <row r="96" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -2280,7 +2332,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="2:14" ht="30" customHeight="1">
+    <row r="97" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -2295,7 +2347,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="2:14" ht="30" customHeight="1">
+    <row r="98" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -2310,7 +2362,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="2:14" ht="30" customHeight="1">
+    <row r="99" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -2325,7 +2377,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="2:14" ht="30" customHeight="1">
+    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -2340,7 +2392,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="2:14" ht="30" customHeight="1">
+    <row r="101" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -2355,7 +2407,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="2:14" ht="30" customHeight="1">
+    <row r="102" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -2370,7 +2422,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="2:14" ht="30" customHeight="1">
+    <row r="103" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -2385,7 +2437,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="2:14" ht="30" customHeight="1">
+    <row r="104" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -2400,7 +2452,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="2:14" ht="30" customHeight="1">
+    <row r="105" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -2415,7 +2467,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="2:14" ht="30" customHeight="1">
+    <row r="106" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2430,7 +2482,7 @@
       <c r="M106" s="7"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="2:14" ht="30" customHeight="1">
+    <row r="107" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2445,7 +2497,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="2:14" ht="30" customHeight="1">
+    <row r="108" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2460,7 +2512,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="2:14" ht="30" customHeight="1">
+    <row r="109" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2475,7 +2527,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="2:14" ht="30" customHeight="1">
+    <row r="110" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -2490,7 +2542,7 @@
       <c r="M110" s="7"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="2:14" ht="30" customHeight="1">
+    <row r="111" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2505,7 +2557,7 @@
       <c r="M111" s="7"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="2:14" ht="30" customHeight="1">
+    <row r="112" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -2520,7 +2572,7 @@
       <c r="M112" s="7"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="2:14" ht="30" customHeight="1">
+    <row r="113" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -2535,7 +2587,7 @@
       <c r="M113" s="7"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="2:14" ht="30" customHeight="1">
+    <row r="114" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -2550,7 +2602,7 @@
       <c r="M114" s="7"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="2:14" ht="30" customHeight="1">
+    <row r="115" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2565,7 +2617,7 @@
       <c r="M115" s="7"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="2:14" ht="30" customHeight="1">
+    <row r="116" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2580,7 +2632,7 @@
       <c r="M116" s="7"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="2:14" ht="30" customHeight="1">
+    <row r="117" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -2595,7 +2647,7 @@
       <c r="M117" s="7"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="2:14" ht="30" customHeight="1">
+    <row r="118" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2610,7 +2662,7 @@
       <c r="M118" s="7"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="2:14" ht="30" customHeight="1">
+    <row r="119" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2625,7 +2677,7 @@
       <c r="M119" s="7"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="2:14" ht="30" customHeight="1">
+    <row r="120" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2640,7 +2692,7 @@
       <c r="M120" s="7"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="2:14" ht="30" customHeight="1">
+    <row r="121" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2655,7 +2707,7 @@
       <c r="M121" s="7"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="2:14" ht="30" customHeight="1">
+    <row r="122" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2670,7 +2722,7 @@
       <c r="M122" s="7"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="2:14" ht="30" customHeight="1">
+    <row r="123" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2685,7 +2737,7 @@
       <c r="M123" s="7"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="2:14" ht="30" customHeight="1">
+    <row r="124" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -2700,7 +2752,7 @@
       <c r="M124" s="7"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="2:14" ht="30" customHeight="1">
+    <row r="125" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2715,7 +2767,7 @@
       <c r="M125" s="7"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="2:14" ht="30" customHeight="1">
+    <row r="126" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2730,7 +2782,7 @@
       <c r="M126" s="7"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="2:14" ht="30" customHeight="1">
+    <row r="127" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2745,7 +2797,7 @@
       <c r="M127" s="7"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="2:14" ht="30" customHeight="1">
+    <row r="128" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2760,7 +2812,7 @@
       <c r="M128" s="7"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="2:14" ht="30" customHeight="1">
+    <row r="129" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2775,7 +2827,7 @@
       <c r="M129" s="7"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="2:14" ht="30" customHeight="1">
+    <row r="130" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -2790,7 +2842,7 @@
       <c r="M130" s="7"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="2:14" ht="30" customHeight="1">
+    <row r="131" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -2805,7 +2857,7 @@
       <c r="M131" s="7"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="2:14" ht="30" customHeight="1">
+    <row r="132" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -2820,7 +2872,7 @@
       <c r="M132" s="7"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="2:14" ht="30" customHeight="1">
+    <row r="133" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -2835,7 +2887,7 @@
       <c r="M133" s="7"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="2:14" ht="30" customHeight="1">
+    <row r="134" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -2850,7 +2902,7 @@
       <c r="M134" s="7"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="2:14" ht="30" customHeight="1">
+    <row r="135" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -2865,7 +2917,7 @@
       <c r="M135" s="7"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="2:14" ht="30" customHeight="1">
+    <row r="136" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -2880,7 +2932,7 @@
       <c r="M136" s="7"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="2:14" ht="30" customHeight="1">
+    <row r="137" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -2895,7 +2947,7 @@
       <c r="M137" s="7"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="2:14" ht="30" customHeight="1">
+    <row r="138" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -2910,7 +2962,7 @@
       <c r="M138" s="7"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="2:14" ht="30" customHeight="1">
+    <row r="139" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -2925,7 +2977,7 @@
       <c r="M139" s="7"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="2:14" ht="30" customHeight="1">
+    <row r="140" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -2940,7 +2992,7 @@
       <c r="M140" s="7"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="2:14" ht="30" customHeight="1">
+    <row r="141" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -2955,7 +3007,7 @@
       <c r="M141" s="7"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="2:14" ht="30" customHeight="1">
+    <row r="142" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -2970,7 +3022,7 @@
       <c r="M142" s="7"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" spans="2:14" ht="30" customHeight="1">
+    <row r="143" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -2985,7 +3037,7 @@
       <c r="M143" s="7"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="2:14" ht="30" customHeight="1">
+    <row r="144" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -3000,91 +3052,91 @@
       <c r="M144" s="7"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" spans="2:14" ht="30" customHeight="1">
+    <row r="145" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="2:14" ht="30" customHeight="1">
+    <row r="146" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="2:14" ht="30" customHeight="1">
+    <row r="147" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="2:14" ht="30" customHeight="1">
+    <row r="148" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="2:14" ht="30" customHeight="1">
+    <row r="149" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="N149" s="2"/>
     </row>
-    <row r="150" spans="2:14" ht="30" customHeight="1">
+    <row r="150" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="2:14" ht="30" customHeight="1">
+    <row r="151" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="2:14" ht="30" customHeight="1">
+    <row r="152" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="2:14" ht="30" customHeight="1">
+    <row r="153" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="2:14" ht="30" customHeight="1">
+    <row r="154" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="N154" s="2"/>
     </row>
-    <row r="155" spans="2:14" ht="30" customHeight="1">
+    <row r="155" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="N155" s="2"/>
     </row>
-    <row r="156" spans="2:14" ht="30" customHeight="1">
+    <row r="156" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="N156" s="2"/>
     </row>
-    <row r="157" spans="2:14" ht="30" customHeight="1">
+    <row r="157" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="N157" s="2"/>
     </row>
-    <row r="158" spans="2:14" ht="30" customHeight="1">
+    <row r="158" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="N158" s="2"/>
     </row>
-    <row r="159" spans="2:14" ht="30" customHeight="1">
+    <row r="159" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="2:14" ht="30" customHeight="1">
+    <row r="160" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
     </row>
   </sheetData>

--- a/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด P.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D457E-BAA4-4B9F-AB12-E6B26B3BD361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1518E831-49B8-4CC7-B7B5-147398BDA032}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Version</t>
   </si>
@@ -133,6 +129,18 @@
   </si>
   <si>
     <t>Da_cdms_car.php</t>
+  </si>
+  <si>
+    <t>Driver_input.php</t>
+  </si>
+  <si>
+    <t>Driver_edit.php</t>
+  </si>
+  <si>
+    <t>v_driver_input.php</t>
+  </si>
+  <si>
+    <t>v_driver_update.php</t>
   </si>
 </sst>
 </file>
@@ -608,22 +616,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="9.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.09765625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="1"/>
+    <col min="6" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
@@ -664,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -679,7 +687,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
@@ -709,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
@@ -729,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
@@ -759,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -787,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
@@ -815,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -841,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
@@ -867,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
@@ -893,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
@@ -919,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
@@ -945,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
@@ -968,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
@@ -991,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1037,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
@@ -1085,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
@@ -1107,61 +1115,104 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="10">
-        <f t="shared" ref="N20" si="2">SUM(F20:M20)</f>
+        <f>SUM(F20:M20)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
+    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="5">
+        <v>242744</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
       <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
+      <c r="N21" s="10">
+        <f>SUM(F21:M21)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="5">
+        <v>242744</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
+      <c r="N22" s="10">
+        <f>SUM(F22:M22)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="5">
+        <v>242744</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
+      <c r="N23" s="10">
+        <f t="shared" ref="N23:N25" si="2">SUM(F23:M23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="5">
+        <v>242744</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1169,14 +1220,25 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
+      <c r="N24" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="5">
+        <v>242744</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1184,9 +1246,12 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1201,7 +1266,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1216,7 +1281,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1231,7 +1296,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1246,7 +1311,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1261,7 +1326,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1276,7 +1341,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1291,7 +1356,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1306,7 +1371,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1321,7 +1386,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1336,7 +1401,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1351,7 +1416,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1366,7 +1431,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1381,7 +1446,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1396,7 +1461,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1411,7 +1476,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1426,7 +1491,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1441,7 +1506,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1456,7 +1521,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1471,7 +1536,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1486,7 +1551,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1501,7 +1566,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1516,7 +1581,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1531,7 +1596,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1546,7 +1611,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1561,7 +1626,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1576,7 +1641,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1591,7 +1656,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1606,7 +1671,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1621,7 +1686,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1636,7 +1701,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1651,7 +1716,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1666,7 +1731,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1681,7 +1746,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1696,7 +1761,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1711,7 +1776,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1726,7 +1791,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1741,7 +1806,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1756,7 +1821,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1771,7 +1836,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1786,7 +1851,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1801,7 +1866,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1816,7 +1881,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1831,7 +1896,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1846,7 +1911,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -1861,7 +1926,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -1876,7 +1941,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -1891,7 +1956,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1906,7 +1971,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -1921,7 +1986,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -1936,7 +2001,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -1951,7 +2016,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -1966,7 +2031,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -1981,7 +2046,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1996,7 +2061,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2011,7 +2076,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2026,7 +2091,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2041,7 +2106,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2056,7 +2121,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2071,7 +2136,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2086,7 +2151,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2101,7 +2166,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2116,7 +2181,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2131,7 +2196,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2146,7 +2211,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2161,7 +2226,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -2176,7 +2241,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2191,7 +2256,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -2206,7 +2271,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -2221,7 +2286,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -2236,7 +2301,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -2251,7 +2316,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -2266,7 +2331,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -2281,7 +2346,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -2296,7 +2361,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -2311,7 +2376,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -2326,7 +2391,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -2341,7 +2406,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -2356,7 +2421,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -2371,7 +2436,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -2386,7 +2451,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2401,7 +2466,7 @@
       <c r="M106" s="7"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2416,7 +2481,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2431,7 +2496,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2446,7 +2511,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -2461,7 +2526,7 @@
       <c r="M110" s="7"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2476,7 +2541,7 @@
       <c r="M111" s="7"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -2491,7 +2556,7 @@
       <c r="M112" s="7"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -2506,7 +2571,7 @@
       <c r="M113" s="7"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -2521,7 +2586,7 @@
       <c r="M114" s="7"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2536,7 +2601,7 @@
       <c r="M115" s="7"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2551,7 +2616,7 @@
       <c r="M116" s="7"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -2566,7 +2631,7 @@
       <c r="M117" s="7"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2581,7 +2646,7 @@
       <c r="M118" s="7"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2596,7 +2661,7 @@
       <c r="M119" s="7"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2611,7 +2676,7 @@
       <c r="M120" s="7"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2626,7 +2691,7 @@
       <c r="M121" s="7"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2641,7 +2706,7 @@
       <c r="M122" s="7"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2656,7 +2721,7 @@
       <c r="M123" s="7"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -2671,7 +2736,7 @@
       <c r="M124" s="7"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2686,7 +2751,7 @@
       <c r="M125" s="7"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2701,7 +2766,7 @@
       <c r="M126" s="7"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2716,7 +2781,7 @@
       <c r="M127" s="7"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2731,7 +2796,7 @@
       <c r="M128" s="7"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2746,7 +2811,7 @@
       <c r="M129" s="7"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -2761,7 +2826,7 @@
       <c r="M130" s="7"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -2776,7 +2841,7 @@
       <c r="M131" s="7"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -2791,7 +2856,7 @@
       <c r="M132" s="7"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -2806,7 +2871,7 @@
       <c r="M133" s="7"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -2821,7 +2886,7 @@
       <c r="M134" s="7"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -2836,7 +2901,7 @@
       <c r="M135" s="7"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -2851,7 +2916,7 @@
       <c r="M136" s="7"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -2866,7 +2931,7 @@
       <c r="M137" s="7"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -2881,7 +2946,7 @@
       <c r="M138" s="7"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -2896,7 +2961,7 @@
       <c r="M139" s="7"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -2911,7 +2976,7 @@
       <c r="M140" s="7"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -2926,7 +2991,7 @@
       <c r="M141" s="7"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -2941,7 +3006,7 @@
       <c r="M142" s="7"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -2956,7 +3021,7 @@
       <c r="M143" s="7"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -2971,91 +3036,91 @@
       <c r="M144" s="7"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="3"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="3"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="3"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="3"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="3"/>
       <c r="N149" s="2"/>
     </row>
-    <row r="150" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="3"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="3"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="3"/>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="3"/>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="3"/>
       <c r="N154" s="2"/>
     </row>
-    <row r="155" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="3"/>
       <c r="N155" s="2"/>
     </row>
-    <row r="156" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="3"/>
       <c r="N156" s="2"/>
     </row>
-    <row r="157" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
       <c r="N157" s="2"/>
     </row>
-    <row r="158" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="3"/>
       <c r="N158" s="2"/>
     </row>
-    <row r="159" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="3"/>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="3"/>
     </row>
   </sheetData>
